--- a/data/trans_dic/P40_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P40_R2-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3279658743440474</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4201560335884185</v>
+        <v>0.4201560335884186</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3667300952334143</v>
@@ -697,7 +697,7 @@
         <v>0.2708973527392475</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3784843350064145</v>
+        <v>0.3784843350064146</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2423280956146176</v>
+        <v>0.2437441485880319</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1805092618265375</v>
+        <v>0.1790857446503647</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1837300508290698</v>
+        <v>0.1836155678977981</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2841797053638752</v>
+        <v>0.2846120716891444</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.389153013744672</v>
+        <v>0.3911201854800126</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3274604319572113</v>
+        <v>0.3267343989775873</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3015504940177468</v>
+        <v>0.3034090245222498</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3839125126223812</v>
+        <v>0.3829653884152147</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3435910564101133</v>
+        <v>0.3424811913424544</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.260459628884376</v>
+        <v>0.2632638376278038</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2519804124868961</v>
+        <v>0.2523581349960008</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3501877526316253</v>
+        <v>0.3528183314305072</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3179206675818358</v>
+        <v>0.3218496219483098</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2317431876526488</v>
+        <v>0.2313553890015645</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2313985010776851</v>
+        <v>0.2316297140150501</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3711742135227148</v>
+        <v>0.3745826700286105</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4549575562873929</v>
+        <v>0.4574055026832672</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3832740509184888</v>
+        <v>0.3876054584560481</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.35648620905127</v>
+        <v>0.3592700747896737</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4539439698285383</v>
+        <v>0.4549609551059255</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3920182137746727</v>
+        <v>0.3916972032035635</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3018154212949594</v>
+        <v>0.3061789987401735</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2897651638890791</v>
+        <v>0.2897824613045911</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4054678453852129</v>
+        <v>0.4062149929735488</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.185835269576311</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2612064609363405</v>
+        <v>0.2612064609363404</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1353381732188127</v>
+        <v>0.1353642515700396</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1424321981381973</v>
+        <v>0.1436430180406714</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1163506018647916</v>
+        <v>0.1151622283317726</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1726532855542528</v>
+        <v>0.1739856677542866</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2383657301631354</v>
+        <v>0.2398509412343912</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2455273041914026</v>
+        <v>0.248183166095621</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2039775201428946</v>
+        <v>0.2018168594677577</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2922146507937772</v>
+        <v>0.2929723051478465</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1926596403418798</v>
+        <v>0.193823986125956</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2044522477501499</v>
+        <v>0.205897542942549</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1686155511167212</v>
+        <v>0.1688819700971563</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2444785821340882</v>
+        <v>0.2441498270356663</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.179144443128145</v>
+        <v>0.1798264172229942</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1931124862592103</v>
+        <v>0.1914691013070868</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1619744413019084</v>
+        <v>0.160757740329019</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2237205804451995</v>
+        <v>0.2244791736559975</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.290852520246787</v>
+        <v>0.2955373242374983</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3022343237317067</v>
+        <v>0.3047414554485657</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2597509145319096</v>
+        <v>0.2573590512516454</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3369522713000458</v>
+        <v>0.3405773241978961</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2284041474239024</v>
+        <v>0.2292660576545757</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2426482112448977</v>
+        <v>0.2438515350300266</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2037852315366049</v>
+        <v>0.2066794117499133</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2790277288086179</v>
+        <v>0.2799953600407549</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.1717018440384792</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1917407104397406</v>
+        <v>0.1917407104397407</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1017518543321411</v>
+        <v>0.1004445683220859</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1371851167202292</v>
+        <v>0.1381988310866663</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1163693198147412</v>
+        <v>0.1164439935391031</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1405595669440915</v>
+        <v>0.1409099203058433</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1772503997977324</v>
+        <v>0.1766355502633608</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.172595627785428</v>
+        <v>0.171244385143446</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1781910584128553</v>
+        <v>0.1755388701376252</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1999675241465052</v>
+        <v>0.2021234110337621</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1417969285176485</v>
+        <v>0.1419685100652617</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1631513971855185</v>
+        <v>0.163228324125571</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.153040168954407</v>
+        <v>0.1522579982990964</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1751356220659777</v>
+        <v>0.176118225657197</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1381215760150223</v>
+        <v>0.1390100116549534</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1906076679625808</v>
+        <v>0.1918957585259029</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1632041323310676</v>
+        <v>0.1631722935696855</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1853069011472639</v>
+        <v>0.1858744180825006</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2277969713316472</v>
+        <v>0.2278532024339802</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2294811259045373</v>
+        <v>0.2275475879163799</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2356396384977648</v>
+        <v>0.2344614834855589</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2428596574406316</v>
+        <v>0.2449295198552625</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1737593402277838</v>
+        <v>0.1743978051431564</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2004989979161771</v>
+        <v>0.2008114570658798</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1914442987652893</v>
+        <v>0.1924318356136085</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2075015149190241</v>
+        <v>0.2070116751410087</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1291645069752378</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1308608695903791</v>
+        <v>0.1308608695903792</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1855702221126604</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07361393989533684</v>
+        <v>0.07370861139517682</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08890131204932111</v>
+        <v>0.08690423310060863</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1016184443428842</v>
+        <v>0.09972907448197263</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1076841074655709</v>
+        <v>0.1116194389890115</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1464286543689148</v>
+        <v>0.1474363005525399</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1454782840053203</v>
+        <v>0.1438063539869432</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1348905829948798</v>
+        <v>0.1325953577509305</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1678735360052447</v>
+        <v>0.1665287544243426</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1128004926328398</v>
+        <v>0.1131085711241488</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1210910018541879</v>
+        <v>0.1243486422541418</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.124422390527696</v>
+        <v>0.1269714266019318</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1413399549048601</v>
+        <v>0.1426734906951445</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.132242633666745</v>
+        <v>0.132389910649642</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1455154809712486</v>
+        <v>0.1459324288225348</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1649794310333489</v>
+        <v>0.1618722109546006</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1522339531485577</v>
+        <v>0.1541259699385532</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2303938428261526</v>
+        <v>0.2365998455465776</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2185685072166035</v>
+        <v>0.2185567247596403</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2088342933132371</v>
+        <v>0.2056867801401289</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2140573391681404</v>
+        <v>0.2111908544197226</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1628698578182273</v>
+        <v>0.1621795742091859</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1691719879599096</v>
+        <v>0.168965815028234</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1702246528106377</v>
+        <v>0.1743554233648183</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.173850691460442</v>
+        <v>0.1738921214800536</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1455728488283393</v>
+        <v>0.1462663795307585</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1551567256821497</v>
+        <v>0.1564412658575223</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1476029560738327</v>
+        <v>0.1475196377387425</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1741279103086822</v>
+        <v>0.1745292003564889</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2659799433300418</v>
+        <v>0.2654810516475264</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2547422779694027</v>
+        <v>0.253836386053743</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2354554639672524</v>
+        <v>0.2350775439963952</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2616225432273709</v>
+        <v>0.2630396268588805</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2104099849235527</v>
+        <v>0.210507183683339</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2095054460196168</v>
+        <v>0.2106543708603076</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1967912878442152</v>
+        <v>0.1966886924040897</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2235051863564363</v>
+        <v>0.2228561355873531</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1709666598712779</v>
+        <v>0.1710469547572287</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1842380887649437</v>
+        <v>0.1843688413390933</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1726238505617753</v>
+        <v>0.1731802097591887</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1995443977397479</v>
+        <v>0.2003056641758441</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2963023746197692</v>
+        <v>0.2975931071953544</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2836171589805111</v>
+        <v>0.2849082373952738</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2668512032745922</v>
+        <v>0.2659793700196892</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2878283291558339</v>
+        <v>0.2882810279134638</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2301495722059317</v>
+        <v>0.2304207181254455</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2302212791531597</v>
+        <v>0.2309948612395056</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2172608352157589</v>
+        <v>0.2176311319033884</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2407987182749571</v>
+        <v>0.2415349014606446</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>141554</v>
+        <v>142381</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>184981</v>
+        <v>183522</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>205532</v>
+        <v>205404</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>141732</v>
+        <v>141947</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>358929</v>
+        <v>360743</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>364381</v>
+        <v>363573</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>376232</v>
+        <v>378551</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>239400</v>
+        <v>238810</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>517611</v>
+        <v>515939</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>556738</v>
+        <v>562732</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>596267</v>
+        <v>597161</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>393023</v>
+        <v>395975</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>185710</v>
+        <v>188006</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>237484</v>
+        <v>237087</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>258857</v>
+        <v>259116</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>185119</v>
+        <v>186819</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>419622</v>
+        <v>421880</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>426487</v>
+        <v>431307</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>444774</v>
+        <v>448247</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>283070</v>
+        <v>283705</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>590565</v>
+        <v>590082</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>645137</v>
+        <v>654464</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>685678</v>
+        <v>685719</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>455065</v>
+        <v>455903</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>145745</v>
+        <v>145773</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>137219</v>
+        <v>138386</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>105503</v>
+        <v>104426</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>165771</v>
+        <v>167050</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>251655</v>
+        <v>253223</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>267437</v>
+        <v>270330</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>204201</v>
+        <v>202038</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>326067</v>
+        <v>326913</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>410874</v>
+        <v>413358</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>419666</v>
+        <v>422633</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>321696</v>
+        <v>322204</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>507534</v>
+        <v>506852</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>192920</v>
+        <v>193654</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>186045</v>
+        <v>184462</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>146874</v>
+        <v>145771</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>214802</v>
+        <v>215531</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>307068</v>
+        <v>312014</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>329204</v>
+        <v>331935</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>260035</v>
+        <v>257641</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>375988</v>
+        <v>380033</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>487105</v>
+        <v>488943</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>498068</v>
+        <v>500538</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>388795</v>
+        <v>394317</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>579258</v>
+        <v>581266</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>114124</v>
+        <v>112658</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>120363</v>
+        <v>121253</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>95139</v>
+        <v>95200</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>147093</v>
+        <v>147459</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>176176</v>
+        <v>175565</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>149937</v>
+        <v>148763</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>135969</v>
+        <v>133945</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>209494</v>
+        <v>211753</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>299976</v>
+        <v>300339</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>284878</v>
+        <v>285012</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>241896</v>
+        <v>240660</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>366755</v>
+        <v>368813</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>154916</v>
+        <v>155913</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>167235</v>
+        <v>168365</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>133429</v>
+        <v>133403</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>193920</v>
+        <v>194514</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>226417</v>
+        <v>226472</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>199354</v>
+        <v>197674</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>179805</v>
+        <v>178906</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>254430</v>
+        <v>256598</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>367594</v>
+        <v>368944</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>350090</v>
+        <v>350636</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>302598</v>
+        <v>304159</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>434533</v>
+        <v>433507</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>32855</v>
+        <v>32898</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>44383</v>
+        <v>43386</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>51229</v>
+        <v>50277</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>105092</v>
+        <v>108933</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>49955</v>
+        <v>50299</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>65297</v>
+        <v>64546</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>65385</v>
+        <v>64273</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>152471</v>
+        <v>151250</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>88828</v>
+        <v>89070</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>114804</v>
+        <v>117892</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>123036</v>
+        <v>125557</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>266310</v>
+        <v>268823</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>59022</v>
+        <v>59088</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>72647</v>
+        <v>72855</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>83171</v>
+        <v>81605</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>148570</v>
+        <v>150416</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>78601</v>
+        <v>80718</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>98103</v>
+        <v>98097</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>101228</v>
+        <v>99702</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>194418</v>
+        <v>191814</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>128256</v>
+        <v>127713</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>160389</v>
+        <v>160193</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>168328</v>
+        <v>172413</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>327566</v>
+        <v>327644</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>470047</v>
+        <v>472287</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>522070</v>
+        <v>526392</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>494046</v>
+        <v>493767</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>606189</v>
+        <v>607586</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>881240</v>
+        <v>879587</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>896576</v>
+        <v>893387</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>823277</v>
+        <v>821956</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>966780</v>
+        <v>972016</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1376529</v>
+        <v>1377165</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1442305</v>
+        <v>1450215</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1346772</v>
+        <v>1346070</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1604009</v>
+        <v>1599351</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>552043</v>
+        <v>552302</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>619923</v>
+        <v>620363</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>577794</v>
+        <v>579656</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>694671</v>
+        <v>697321</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>981703</v>
+        <v>985980</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>998202</v>
+        <v>1002746</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>933053</v>
+        <v>930005</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1063618</v>
+        <v>1065291</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1505668</v>
+        <v>1507442</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1584920</v>
+        <v>1590245</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1486858</v>
+        <v>1489393</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1728118</v>
+        <v>1733401</v>
       </c>
     </row>
     <row r="24">
